--- a/biology/Botanique/Coste_della_Sesia/Coste_della_Sesia.xlsx
+++ b/biology/Botanique/Coste_della_Sesia/Coste_della_Sesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Coste della Sesia Bonarda est un vignoble italien de la région Piémont dont les appellations sont dotées d'une appellation DOC depuis le 14 septembre 1996. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. 
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Biella dans les communes de Lessona, Masserano, Brusnengo, Curino, Villa del Bosco, Sostegno, Cossato, Mottalciata, Candelo, Quaregna, Cerreto Castello, Valdengo et Vigliano Biellese.
 Les vignobles se situent sur les pentes qui surplombent la rive droite du cours d'eau de la Sesia.
@@ -543,7 +557,9 @@
           <t>Superficie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La superficie plantée en vignes, en hectares est :
 bianco 1,22
@@ -577,7 +593,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les cépages les plus importants sont :
 Bonarda piemontese
@@ -613,7 +631,9 @@
           <t>Appellations, vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous l’appellation, les vins suivants sont autorisés :
 Coste della Sesia Bonarda
